--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Task\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanushan\Documents\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3478F4AE-4520-4FE1-85F4-F0F48093B906}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E38B10-0C24-4036-98A7-2C1AE1979AE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2700" windowWidth="20460" windowHeight="8220" firstSheet="4" activeTab="7" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="30" yWindow="2700" windowWidth="20460" windowHeight="8220" firstSheet="6" activeTab="6" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D66028C-AE9C-4542-92AC-A8303956EBE9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1286,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFB681-C5A2-4675-B015-AC82E46CFC98}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>

--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanushan\Documents\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E38B10-0C24-4036-98A7-2C1AE1979AE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF55275-5532-4ACA-A0C4-BA566B1C0DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2700" windowWidth="20460" windowHeight="8220" firstSheet="6" activeTab="6" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="210" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="3" activeTab="3" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
     <sheet name="555" sheetId="4" r:id="rId2"/>
     <sheet name="Add_Holiday" sheetId="2" r:id="rId3"/>
-    <sheet name="Assign_Leave" sheetId="3" r:id="rId4"/>
-    <sheet name="Valid_Login" sheetId="6" r:id="rId5"/>
-    <sheet name="Leave_List" sheetId="7" r:id="rId6"/>
-    <sheet name="Add_Single_Leave_Entitlement" sheetId="8" r:id="rId7"/>
-    <sheet name="Add_Leave_Multiple_Entitlement" sheetId="9" r:id="rId8"/>
-    <sheet name="Search_Entitlement" sheetId="10" r:id="rId9"/>
-    <sheet name="Usage_Report_1" sheetId="11" r:id="rId10"/>
-    <sheet name="Usage_Report_2" sheetId="15" r:id="rId11"/>
-    <sheet name="Work_Week" sheetId="14" r:id="rId12"/>
-    <sheet name="Leave_Period" sheetId="12" r:id="rId13"/>
-    <sheet name="Invalid_Login" sheetId="5" r:id="rId14"/>
-    <sheet name="Add_Leave_Type" sheetId="13" r:id="rId15"/>
+    <sheet name="Assign_Leave_Full_Day" sheetId="23" r:id="rId4"/>
+    <sheet name="Assign_Leave_Half_Day" sheetId="16" r:id="rId5"/>
+    <sheet name="Assign_Leave_Specific_Time" sheetId="17" r:id="rId6"/>
+    <sheet name="Valid_Login" sheetId="6" r:id="rId7"/>
+    <sheet name="Leave_List" sheetId="7" r:id="rId8"/>
+    <sheet name="Add_Single_Leave_Entitlement" sheetId="8" r:id="rId9"/>
+    <sheet name="Add_Leave_Multiple_Entitlement" sheetId="9" r:id="rId10"/>
+    <sheet name="Search_Entitlement" sheetId="10" r:id="rId11"/>
+    <sheet name="Usage_Report_1" sheetId="11" r:id="rId12"/>
+    <sheet name="Usage_Report_2" sheetId="15" r:id="rId13"/>
+    <sheet name="Work_Week" sheetId="14" r:id="rId14"/>
+    <sheet name="Leave_Period" sheetId="12" r:id="rId15"/>
+    <sheet name="Invalid_Login" sheetId="5" r:id="rId16"/>
+    <sheet name="Add_Leave_Type" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>HolidayFrom</t>
   </si>
@@ -248,7 +250,16 @@
     <t>Linda Anderson</t>
   </si>
   <si>
-    <t>End Day Only</t>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Specify Time</t>
+  </si>
+  <si>
+    <t>Vacation US</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -325,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -340,6 +351,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,6 +700,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFB681-C5A2-4675-B015-AC82E46CFC98}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC569E-34AC-4FD1-8F89-DB3466B9E17E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02968F72-F5DF-427C-B848-365533DFA91A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -743,7 +841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D9973-87E3-49A5-BACF-70C228C1809F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -781,7 +879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4265E06E-3167-4333-9480-FDDA09E530FF}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -843,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100FBEE4-9C9C-414F-A761-1F99866D4210}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -874,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8F0B1-B773-4028-AF94-1D9595213157}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -955,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025388-630B-40E8-9ABF-BD02BFB0876D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1048,7 +1146,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,20 +1183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB34891B-9B61-44A8-A9B3-536B4505D20B}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F24CDB-759C-452E-8A40-1D2936D780A4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,16 +1221,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>43511</v>
       </c>
       <c r="D2" s="2">
-        <v>43526</v>
+        <v>43511</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1141,33 +1239,146 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57A2C9C-A409-4749-888F-51424B67E17B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="2">
         <v>43518</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="2">
         <v>43586</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96680402-0BB6-43C6-9938-392D44270688}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43518</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43586</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.3125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581D6DFB-E8BB-4862-A02F-9D1E9474D1C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1198,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101155C0-C76E-42D6-AC7F-E67D61F4FB3D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1247,11 +1458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D66028C-AE9C-4542-92AC-A8303956EBE9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1299,90 +1510,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFB681-C5A2-4675-B015-AC82E46CFC98}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC569E-34AC-4FD1-8F89-DB3466B9E17E}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanushan\Documents\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF55275-5532-4ACA-A0C4-BA566B1C0DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42486B0-6F78-45AC-8593-A5BB9728149D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="3" activeTab="3" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="3" activeTab="5" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>HolidayFrom</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Hannah Flores</t>
   </si>
   <si>
-    <t>Maternity US</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -260,6 +257,15 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>Medical Reason</t>
   </si>
 </sst>
 </file>
@@ -351,7 +357,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,7 +780,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -1075,7 +1081,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F24CDB-759C-452E-8A40-1D2936D780A4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1249,11 +1255,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1275,7 +1282,7 @@
         <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1283,22 +1290,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
-        <v>43518</v>
+        <v>43511</v>
       </c>
       <c r="D2" s="2">
-        <v>43586</v>
+        <v>43511</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>63</v>
@@ -1313,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96680402-0BB6-43C6-9938-392D44270688}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,25 +1359,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
-        <v>43518</v>
+        <v>43586</v>
       </c>
       <c r="D2" s="2">
         <v>43586</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.3125</v>
+        <v>69</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanushan\Documents\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\7_3_2019\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42486B0-6F78-45AC-8593-A5BB9728149D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953CC45-DAC8-4075-93B4-18187A122C4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="3" activeTab="5" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="12" activeTab="16" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>HolidayFrom</t>
   </si>
@@ -235,9 +235,6 @@
     <t xml:space="preserve">I can't present today work </t>
   </si>
   <si>
-    <t>Hannah Flores</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Medical Reason</t>
+  </si>
+  <si>
+    <t>01/001/2019</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,11 +692,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43133</v>
+      <c r="A2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="2">
-        <v>43133</v>
+        <v>43830</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +710,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +777,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -1061,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025388-630B-40E8-9ABF-BD02BFB0876D}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,12 +1081,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F6A092-1761-45CA-A2E9-32867BEFAE78}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1175,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43613</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1282,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1305,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>63</v>
@@ -1320,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96680402-0BB6-43C6-9938-392D44270688}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1359,10 +1365,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>43586</v>
@@ -1371,16 +1377,16 @@
         <v>43586</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1479,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\7_3_2019\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953CC45-DAC8-4075-93B4-18187A122C4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3FBCA-6E6D-425E-AC8F-007E72782F73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="12" activeTab="16" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="9" activeTab="11" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>HolidayFrom</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Paternity US</t>
   </si>
   <si>
-    <t>2019-01-01 - 2019-12-31</t>
-  </si>
-  <si>
-    <t>HR Executive</t>
-  </si>
-  <si>
     <t xml:space="preserve">  United States</t>
   </si>
   <si>
@@ -265,7 +259,7 @@
     <t>Medical Reason</t>
   </si>
   <si>
-    <t>01/001/2019</t>
+    <t>HR Manager</t>
   </si>
 </sst>
 </file>
@@ -675,7 +669,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,8 +686,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
+      <c r="A2" s="2">
+        <v>43100</v>
       </c>
       <c r="B2" s="2">
         <v>43830</v>
@@ -710,7 +704,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,10 +753,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -780,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -795,11 +792,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02968F72-F5DF-427C-B848-365533DFA91A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -828,14 +833,14 @@
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
@@ -852,10 +857,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -876,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -897,30 +907,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -929,16 +939,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -959,15 +969,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>14</v>
@@ -1063,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025388-630B-40E8-9ABF-BD02BFB0876D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1071,17 +1081,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1157,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,13 +1189,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2">
         <v>43613</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1209,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1233,7 +1243,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1248,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1285,10 +1295,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1296,7 +1306,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1308,13 +1318,13 @@
         <v>43511</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1337,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -1365,10 +1375,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>43586</v>
@@ -1377,16 +1387,16 @@
         <v>43586</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1440,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1489,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/Leave.xlsx
+++ b/src/test/resources/ExcelSheet/Leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\7_3_2019\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3FBCA-6E6D-425E-AC8F-007E72782F73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827F141-EBFC-4DE8-9F71-F8AFEA9218E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="9" activeTab="11" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="20460" windowHeight="8220" firstSheet="5" activeTab="7" xr2:uid="{DC8DC977-BC8A-4B67-B3EF-3D775C65C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Holiday" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02968F72-F5DF-427C-B848-365533DFA91A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101155C0-C76E-42D6-AC7F-E67D61F4FB3D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43412</v>
+        <v>38664</v>
       </c>
       <c r="B2" s="2">
         <v>43799</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
